--- a/company_classification_by_metric.xlsx
+++ b/company_classification_by_metric.xlsx
@@ -4381,7 +4381,7 @@
         <v>23542625228.9058</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4401,7 +4401,7 @@
         <v>25415733552.8913</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4481,7 +4481,7 @@
         <v>6683599893.447134</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -4561,7 +4561,7 @@
         <v>55431845620.31776</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4601,7 +4601,7 @@
         <v>32649912230.27383</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -4821,7 +4821,7 @@
         <v>745688368585311.4</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -4981,7 +4981,7 @@
         <v>54934317559.39002</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -5001,7 +5001,7 @@
         <v>14291328626.99498</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -5021,7 +5021,7 @@
         <v>3739820699.455895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -5081,7 +5081,7 @@
         <v>101951734099057.8</v>
       </c>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -5141,7 +5141,7 @@
         <v>1156568938.911726</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
